--- a/src/run_data.xlsx
+++ b/src/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,25 +409,30 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Constraints</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Run time</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
@@ -435,19 +440,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -456,46 +461,49 @@
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>352</v>
       </c>
       <c r="J2" t="n">
-        <v>1197</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>1817</v>
+        <v>5733</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>25/03</t>
-        </is>
+        <v>9624</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0106</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11:02:21</t>
+          <t>31/03</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>11:11:27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -504,276 +512,302 @@
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>858</v>
+        <v>48</v>
       </c>
       <c r="K3" t="n">
-        <v>1212</v>
+        <v>22932</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>25/03</t>
-        </is>
+        <v>39122</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0608</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>15:56:32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
       <c r="G4" t="n">
         <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>160</v>
+      </c>
       <c r="J4" t="n">
-        <v>348</v>
+        <v>90</v>
       </c>
       <c r="K4" t="n">
-        <v>282</v>
+        <v>52668</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>25/03</t>
-        </is>
+        <v>91282</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1491</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>15:56:25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>400</v>
+      </c>
       <c r="J5" t="n">
-        <v>8008</v>
+        <v>234</v>
       </c>
       <c r="K5" t="n">
-        <v>11912</v>
+        <v>114660</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0174</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>195602</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3841</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1566</v>
+      </c>
       <c r="J6" t="n">
-        <v>572</v>
+        <v>54</v>
       </c>
       <c r="K6" t="n">
-        <v>784</v>
+        <v>28665</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>47867</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0945</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>12:20:31</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>200</v>
+      </c>
       <c r="J7" t="n">
-        <v>286</v>
+        <v>114</v>
       </c>
       <c r="K7" t="n">
-        <v>356</v>
+        <v>101430</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>97112</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.3865</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>11:16:44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B8" t="n">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>1430</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>60</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>2068</v>
+        <v>30429</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>28721</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1367</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -784,45 +818,48 @@
       <c r="H9" t="n">
         <v>5</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>1144</v>
-      </c>
+      <c r="I9" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>1640</v>
+        <v>10143</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>9575</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0359</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -830,45 +867,48 @@
       <c r="H10" t="n">
         <v>5</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>3990</v>
-      </c>
+      <c r="I10" t="n">
+        <v>160</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>6200</v>
+        <v>81144</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>77690</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3027</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -876,45 +916,48 @@
       <c r="H11" t="n">
         <v>5</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2860</v>
-      </c>
+      <c r="I11" t="n">
+        <v>120</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>4120</v>
+        <v>60858</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0119</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>58151</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.2167</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -922,45 +965,48 @@
       <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>6250</v>
-      </c>
+      <c r="I12" t="n">
+        <v>80</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>10697</v>
+        <v>46914</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0162</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>45229</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1723</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B13" t="n">
         <v>7</v>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -968,45 +1014,48 @@
       <c r="H13" t="n">
         <v>5</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>14230</v>
-      </c>
+      <c r="I13" t="n">
+        <v>120</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>23531</v>
+        <v>70371</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0366</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>68161</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.2664</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1014,91 +1063,97 @@
       <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>7115</v>
-      </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>11761</v>
+        <v>20286</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>19385</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0702</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>5685</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1194</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>9623</v>
+        <v>101430</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
+        <v>97112</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5688</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -1106,83 +1161,97 @@
       <c r="H16" t="n">
         <v>5</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>5685</v>
-      </c>
+      <c r="I16" t="n">
+        <v>124</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>9623</v>
+        <v>50715</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>47867</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.2266</v>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>3125</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7950</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>5347</v>
+        <v>202860</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>195602</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.3571</v>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -1190,56 +1259,1590 @@
       <c r="H18" t="n">
         <v>5</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>11370</v>
-      </c>
+      <c r="I18" t="n">
+        <v>41720</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>19253</v>
+        <v>1173690</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0334</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+        <v>1149317</v>
+      </c>
+      <c r="M18" t="n">
+        <v>19.0623</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>17:24:49</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>124</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>23415</v>
+      </c>
+      <c r="L19" t="n">
+        <v>21917</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0978</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>17:20:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>60</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14049</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13151</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>17:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
         <v>2</v>
       </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>10787</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10229</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>17:11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>4683</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4385</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>17:06:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>60</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>14049</v>
+      </c>
+      <c r="L23" t="n">
+        <v>13373</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>17:06:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>21</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>932</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>42147</v>
+      </c>
+      <c r="L24" t="n">
+        <v>40115</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>17:01:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>41</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>988547</v>
+      </c>
+      <c r="L25" t="n">
+        <v>951134</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.1745</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>18:07:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>49</v>
+      </c>
+      <c r="D26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>54920</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>6919829</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6861710</v>
+      </c>
+      <c r="M26" t="n">
+        <v>183.2784</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>12:20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1053</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>424263</v>
+      </c>
+      <c r="L27" t="n">
+        <v>407630</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.5868</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>12:10:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>84</v>
+      </c>
+      <c r="D28" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>205171</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>2596356</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5051654</v>
+      </c>
+      <c r="M28" t="n">
+        <v>12.0275</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>12:02:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12200</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>865452</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1674182</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.4971</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>11:47:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2519</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>11172</v>
+      </c>
+      <c r="L30" t="n">
+        <v>17867</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0343</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>11:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2788</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>13167</v>
+      </c>
+      <c r="L31" t="n">
+        <v>21077</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0473</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>11:42:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2272</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>9177</v>
+      </c>
+      <c r="L32" t="n">
+        <v>14657</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>11:42:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2191</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>5187</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8237</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>11:42:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>171</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1197</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1817</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>11:42:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>21</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>858</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1212</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>25/03</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>10:48:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>348</v>
+      </c>
+      <c r="L36" t="n">
+        <v>282</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>25/03</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>10:26:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>28</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>8008</v>
+      </c>
+      <c r="L37" t="n">
+        <v>11912</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>18:05:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>572</v>
+      </c>
+      <c r="L38" t="n">
+        <v>784</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>17:42:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>286</v>
+      </c>
+      <c r="L39" t="n">
+        <v>356</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>17:34:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1430</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2068</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>17:33:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1144</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1640</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>17:33:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>3990</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6200</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>16:51:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>2860</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4120</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>16:16:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>6250</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10697</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>13:51:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>14230</v>
+      </c>
+      <c r="L45" t="n">
+        <v>23531</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>13:30:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>7115</v>
+      </c>
+      <c r="L46" t="n">
+        <v>11761</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>13:29:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>5685</v>
+      </c>
+      <c r="L47" t="n">
+        <v>9623</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>13:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>5685</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9623</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
         <v>3125</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L49" t="n">
         <v>5347</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M49" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>11370</v>
+      </c>
+      <c r="L50" t="n">
+        <v>19253</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>3125</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5347</v>
+      </c>
+      <c r="M51" t="n">
         <v>0.0071</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/run_data.xlsx
+++ b/src/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,19 +464,19 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>352</v>
+        <v>51</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K2" t="n">
-        <v>5733</v>
+        <v>5754</v>
       </c>
       <c r="L2" t="n">
-        <v>9624</v>
+        <v>9642</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0106</v>
+        <v>0.0146</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>11:11:27</t>
+          <t>15:19:12</t>
         </is>
       </c>
     </row>
@@ -695,13 +695,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>15</v>
@@ -710,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
@@ -719,19 +719,17 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>200</v>
-      </c>
-      <c r="J7" t="n">
-        <v>114</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>101430</v>
+        <v>30429</v>
       </c>
       <c r="L7" t="n">
-        <v>97112</v>
+        <v>28721</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3865</v>
+        <v>0.1367</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -740,16 +738,16 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>11:16:44</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -761,26 +759,26 @@
         <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>30429</v>
+        <v>10143</v>
       </c>
       <c r="L8" t="n">
-        <v>28721</v>
+        <v>9575</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1367</v>
+        <v>0.0359</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -789,19 +787,19 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>15</v>
@@ -810,7 +808,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -819,17 +817,17 @@
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>10143</v>
+        <v>81144</v>
       </c>
       <c r="L9" t="n">
-        <v>9575</v>
+        <v>77690</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0359</v>
+        <v>0.3027</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -838,16 +836,16 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>14</v>
@@ -859,7 +857,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -868,17 +866,17 @@
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>81144</v>
+        <v>60858</v>
       </c>
       <c r="L10" t="n">
-        <v>77690</v>
+        <v>58151</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3027</v>
+        <v>0.2167</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -887,16 +885,16 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>14</v>
@@ -908,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -917,17 +915,17 @@
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>60858</v>
+        <v>46914</v>
       </c>
       <c r="L11" t="n">
-        <v>58151</v>
+        <v>45229</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2167</v>
+        <v>0.1723</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -936,19 +934,19 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
         <v>15</v>
@@ -966,17 +964,17 @@
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>46914</v>
+        <v>70371</v>
       </c>
       <c r="L12" t="n">
-        <v>45229</v>
+        <v>68161</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1723</v>
+        <v>0.2664</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -985,47 +983,47 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
         <v>40</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>21</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>120</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>70371</v>
+        <v>20286</v>
       </c>
       <c r="L13" t="n">
-        <v>68161</v>
+        <v>19385</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2664</v>
+        <v>0.0702</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1034,16 +1032,16 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>14</v>
@@ -1055,7 +1053,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1064,38 +1062,38 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>1194</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>20286</v>
+        <v>101430</v>
       </c>
       <c r="L14" t="n">
-        <v>19385</v>
+        <v>97112</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0702</v>
+        <v>0.5688</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
@@ -1113,17 +1111,17 @@
         <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>1194</v>
+        <v>124</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>101430</v>
+        <v>50715</v>
       </c>
       <c r="L15" t="n">
-        <v>97112</v>
+        <v>47867</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5688</v>
+        <v>0.2266</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1132,19 +1130,19 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -1162,17 +1160,17 @@
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>124</v>
+        <v>7950</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>50715</v>
+        <v>202860</v>
       </c>
       <c r="L16" t="n">
-        <v>47867</v>
+        <v>195602</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2266</v>
+        <v>1.3571</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1181,25 +1179,25 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
         <v>5</v>
@@ -1211,17 +1209,17 @@
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>7950</v>
+        <v>41720</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>202860</v>
+        <v>1173690</v>
       </c>
       <c r="L17" t="n">
-        <v>195602</v>
+        <v>1149317</v>
       </c>
       <c r="M17" t="n">
-        <v>1.3571</v>
+        <v>19.0623</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1230,25 +1228,25 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="n">
         <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
         <v>5</v>
@@ -1260,17 +1258,17 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>41720</v>
+        <v>124</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>1173690</v>
+        <v>23415</v>
       </c>
       <c r="L18" t="n">
-        <v>1149317</v>
+        <v>21917</v>
       </c>
       <c r="M18" t="n">
-        <v>19.0623</v>
+        <v>0.0978</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1279,16 +1277,16 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>7</v>
@@ -1300,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1309,17 +1307,17 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>23415</v>
+        <v>14049</v>
       </c>
       <c r="L19" t="n">
-        <v>21917</v>
+        <v>13151</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0978</v>
+        <v>0.06</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1328,16 +1326,16 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>7</v>
@@ -1349,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1358,17 +1356,17 @@
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>14049</v>
+        <v>10787</v>
       </c>
       <c r="L20" t="n">
-        <v>13151</v>
+        <v>10229</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06</v>
+        <v>0.0394</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1377,16 +1375,16 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>7</v>
@@ -1398,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1411,13 +1409,13 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>10787</v>
+        <v>4683</v>
       </c>
       <c r="L21" t="n">
-        <v>10229</v>
+        <v>4385</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0394</v>
+        <v>0.013</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1426,19 +1424,19 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
@@ -1456,17 +1454,17 @@
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>4683</v>
+        <v>14049</v>
       </c>
       <c r="L22" t="n">
-        <v>4385</v>
+        <v>13373</v>
       </c>
       <c r="M22" t="n">
-        <v>0.013</v>
+        <v>0.058</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1475,16 +1473,16 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
         <v>21</v>
@@ -1496,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -1505,17 +1503,17 @@
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>60</v>
+        <v>932</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>14049</v>
+        <v>42147</v>
       </c>
       <c r="L23" t="n">
-        <v>13373</v>
+        <v>40115</v>
       </c>
       <c r="M23" t="n">
-        <v>0.058</v>
+        <v>0.253</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1524,28 +1522,28 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -1554,38 +1552,38 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>932</v>
+        <v>41</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>42147</v>
+        <v>988547</v>
       </c>
       <c r="L24" t="n">
-        <v>40115</v>
+        <v>951134</v>
       </c>
       <c r="M24" t="n">
-        <v>0.253</v>
+        <v>4.1745</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D25" t="n">
         <v>100</v>
@@ -1603,17 +1601,17 @@
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>41</v>
+        <v>54920</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>988547</v>
+        <v>6919829</v>
       </c>
       <c r="L25" t="n">
-        <v>951134</v>
+        <v>6861710</v>
       </c>
       <c r="M25" t="n">
-        <v>4.1745</v>
+        <v>183.2784</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1622,19 +1620,19 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
         <v>7</v>
-      </c>
-      <c r="C26" t="n">
-        <v>49</v>
       </c>
       <c r="D26" t="n">
         <v>100</v>
@@ -1643,7 +1641,7 @@
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1652,17 +1650,17 @@
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>54920</v>
+        <v>1053</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>6919829</v>
+        <v>424263</v>
       </c>
       <c r="L26" t="n">
-        <v>6861710</v>
+        <v>407630</v>
       </c>
       <c r="M26" t="n">
-        <v>183.2784</v>
+        <v>1.5868</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -1671,19 +1669,19 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D27" t="n">
         <v>100</v>
@@ -1701,17 +1699,17 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>1053</v>
+        <v>205171</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>424263</v>
+        <v>2596356</v>
       </c>
       <c r="L27" t="n">
-        <v>407630</v>
+        <v>5051654</v>
       </c>
       <c r="M27" t="n">
-        <v>1.5868</v>
+        <v>12.0275</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -1720,19 +1718,19 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
         <v>100</v>
@@ -1750,17 +1748,17 @@
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>205171</v>
+        <v>12200</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>2596356</v>
+        <v>865452</v>
       </c>
       <c r="L28" t="n">
-        <v>5051654</v>
+        <v>1674182</v>
       </c>
       <c r="M28" t="n">
-        <v>12.0275</v>
+        <v>2.4971</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -1769,13 +1767,13 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
@@ -1784,10 +1782,10 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1799,17 +1797,17 @@
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>12200</v>
+        <v>2519</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>865452</v>
+        <v>11172</v>
       </c>
       <c r="L29" t="n">
-        <v>1674182</v>
+        <v>17867</v>
       </c>
       <c r="M29" t="n">
-        <v>2.4971</v>
+        <v>0.0343</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -1818,19 +1816,19 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>10</v>
@@ -1848,17 +1846,17 @@
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>2519</v>
+        <v>2788</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>11172</v>
+        <v>13167</v>
       </c>
       <c r="L30" t="n">
-        <v>17867</v>
+        <v>21077</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0343</v>
+        <v>0.0473</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -1867,19 +1865,19 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -1897,17 +1895,17 @@
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>2788</v>
+        <v>2272</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>13167</v>
+        <v>9177</v>
       </c>
       <c r="L31" t="n">
-        <v>21077</v>
+        <v>14657</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0473</v>
+        <v>0.027</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -1916,19 +1914,19 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
@@ -1946,17 +1944,17 @@
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>2272</v>
+        <v>2191</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>9177</v>
+        <v>5187</v>
       </c>
       <c r="L32" t="n">
-        <v>14657</v>
+        <v>8237</v>
       </c>
       <c r="M32" t="n">
-        <v>0.027</v>
+        <v>0.0143</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -1965,19 +1963,19 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>10</v>
@@ -1995,17 +1993,17 @@
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>2191</v>
+        <v>171</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>5187</v>
+        <v>1197</v>
       </c>
       <c r="L33" t="n">
-        <v>8237</v>
+        <v>1817</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0143</v>
+        <v>0.0024</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2014,16 +2012,16 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
         <v>3</v>
@@ -2044,32 +2042,32 @@
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>1197</v>
+        <v>858</v>
       </c>
       <c r="L34" t="n">
-        <v>1817</v>
+        <v>1212</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0024</v>
+        <v>0.0022</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
@@ -2078,10 +2076,10 @@
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -2092,18 +2090,16 @@
       <c r="H35" t="n">
         <v>5</v>
       </c>
-      <c r="I35" t="n">
-        <v>21</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>858</v>
+        <v>348</v>
       </c>
       <c r="L35" t="n">
-        <v>1212</v>
+        <v>282</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0022</v>
+        <v>0.0001</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2112,25 +2108,25 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -2144,34 +2140,34 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>348</v>
+        <v>8008</v>
       </c>
       <c r="L36" t="n">
-        <v>282</v>
+        <v>11912</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001</v>
+        <v>0.0174</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -2191,13 +2187,13 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>8008</v>
+        <v>572</v>
       </c>
       <c r="L37" t="n">
-        <v>11912</v>
+        <v>784</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0174</v>
+        <v>0.001</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2206,19 +2202,19 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -2238,13 +2234,13 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>572</v>
+        <v>286</v>
       </c>
       <c r="L38" t="n">
-        <v>784</v>
+        <v>356</v>
       </c>
       <c r="M38" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2253,19 +2249,19 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
@@ -2285,13 +2281,13 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>286</v>
+        <v>1430</v>
       </c>
       <c r="L39" t="n">
-        <v>356</v>
+        <v>2068</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0001</v>
+        <v>0.0029</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2300,19 +2296,19 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
@@ -2332,13 +2328,13 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>1430</v>
+        <v>1144</v>
       </c>
       <c r="L40" t="n">
-        <v>2068</v>
+        <v>1640</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0029</v>
+        <v>0.0028</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -2347,28 +2343,28 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
         <v>2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4</v>
-      </c>
-      <c r="D41" t="n">
-        <v>10</v>
-      </c>
-      <c r="E41" t="n">
-        <v>10</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2379,13 +2375,13 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>1144</v>
+        <v>3990</v>
       </c>
       <c r="L41" t="n">
-        <v>1640</v>
+        <v>6200</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0028</v>
+        <v>0.0072</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -2394,19 +2390,19 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
         <v>10</v>
@@ -2415,7 +2411,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -2426,13 +2422,13 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>3990</v>
+        <v>2860</v>
       </c>
       <c r="L42" t="n">
-        <v>6200</v>
+        <v>4120</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0072</v>
+        <v>0.0119</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -2441,16 +2437,16 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
         <v>10</v>
@@ -2473,13 +2469,13 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>2860</v>
+        <v>6250</v>
       </c>
       <c r="L43" t="n">
-        <v>4120</v>
+        <v>10697</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0119</v>
+        <v>0.0162</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -2488,16 +2484,16 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C44" t="n">
         <v>10</v>
@@ -2509,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -2520,13 +2516,13 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>6250</v>
+        <v>14230</v>
       </c>
       <c r="L44" t="n">
-        <v>10697</v>
+        <v>23531</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0162</v>
+        <v>0.0366</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -2535,19 +2531,19 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" t="n">
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -2567,13 +2563,13 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>14230</v>
+        <v>7115</v>
       </c>
       <c r="L45" t="n">
-        <v>23531</v>
+        <v>11761</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0366</v>
+        <v>0.0116</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -2582,16 +2578,16 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" t="n">
         <v>5</v>
@@ -2603,24 +2599,24 @@
         <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>6</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>7115</v>
+        <v>5685</v>
       </c>
       <c r="L46" t="n">
-        <v>11761</v>
+        <v>9623</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0116</v>
+        <v>0.0098</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -2629,220 +2625,428 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>14</v>
+      </c>
+      <c r="D47" t="n">
+        <v>15</v>
+      </c>
+      <c r="E47" t="n">
+        <v>15</v>
+      </c>
+      <c r="F47" t="n">
         <v>1</v>
       </c>
-      <c r="B47" t="n">
-        <v>9</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5</v>
-      </c>
-      <c r="D47" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" t="n">
-        <v>10</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
       <c r="G47" t="n">
         <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I47" t="n">
+        <v>102</v>
+      </c>
+      <c r="J47" t="n">
+        <v>79</v>
+      </c>
       <c r="K47" t="n">
-        <v>5685</v>
+        <v>11508</v>
       </c>
       <c r="L47" t="n">
-        <v>9623</v>
+        <v>19546</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0098</v>
+        <v>0.0279</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>01/04</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>10:53:53</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
         <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I48" t="n">
+        <v>950</v>
+      </c>
+      <c r="J48" t="n">
+        <v>73</v>
+      </c>
       <c r="K48" t="n">
-        <v>5685</v>
+        <v>46032</v>
       </c>
       <c r="L48" t="n">
-        <v>9623</v>
+        <v>80278</v>
       </c>
       <c r="M48" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0.2942</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>10:42:48</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1578</v>
+      </c>
+      <c r="J49" t="n">
+        <v>55</v>
+      </c>
       <c r="K49" t="n">
-        <v>3125</v>
+        <v>57540</v>
       </c>
       <c r="L49" t="n">
-        <v>5347</v>
+        <v>100522</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0.4016</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>10:25:46</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n">
         <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I50" t="n">
+        <v>370</v>
+      </c>
+      <c r="J50" t="n">
+        <v>103</v>
+      </c>
       <c r="K50" t="n">
-        <v>11370</v>
+        <v>34524</v>
       </c>
       <c r="L50" t="n">
-        <v>19253</v>
+        <v>60034</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0334</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+        <v>0.1479</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>10:25:16</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>14</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15</v>
+      </c>
+      <c r="F51" t="n">
         <v>2</v>
       </c>
-      <c r="B51" t="n">
-        <v>5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>5</v>
-      </c>
-      <c r="D51" t="n">
-        <v>10</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+      <c r="I51" t="n">
+        <v>124</v>
+      </c>
+      <c r="J51" t="n">
+        <v>81</v>
+      </c>
+      <c r="K51" t="n">
+        <v>26432</v>
+      </c>
+      <c r="L51" t="n">
+        <v>46258</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.1121</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>10:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>5685</v>
+      </c>
+      <c r="L52" t="n">
+        <v>9623</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
         <v>1</v>
       </c>
-      <c r="G51" t="n">
-        <v>6</v>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+      <c r="G53" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
         <v>3125</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L53" t="n">
         <v>5347</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M53" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="n">
+        <v>9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>11370</v>
+      </c>
+      <c r="L54" t="n">
+        <v>19253</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>3125</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5347</v>
+      </c>
+      <c r="M55" t="n">
         <v>0.0071</v>
       </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/run_data.xlsx
+++ b/src/run_data.xlsx
@@ -2667,7 +2667,7 @@
         <v>19546</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0279</v>
+        <v>0.0278</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>10:53:53</t>
+          <t>10:59:04</t>
         </is>
       </c>
     </row>
